--- a/biology/Botanique/Saxifraga_caesia/Saxifraga_caesia.xlsx
+++ b/biology/Botanique/Saxifraga_caesia/Saxifraga_caesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saxifraga caesia, la saxifrage bleuâtre, est une espèce de plantes dicotylédones de la famille des Saxifragaceae, originaire des régions montagneuses d'Europe, des Pyrénées aux Carpates.
-Cette espèce est classée dans la Liste rouge de la flore vasculaire de France métropolitaine[1].
+Cette espèce est classée dans la Liste rouge de la flore vasculaire de France métropolitaine.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite plante haute de 4 à 10 cm, constituée de coussinets de feuilles très coriaces, vert-bleuté, disposées en rosette. Les petites fleurs blanches sont réunies par 2 à 6 au sommet des tiges.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rochers et éboulis calcaires de 1 500 à 3 000 m d'altitude.
 </t>
@@ -574,9 +590,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (29 avril 2019)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (29 avril 2019) :
 Chondrosea caesia (L.) Haw.
 Chondrosea patens Haw.
 Evaiezoa caesia (L.) Raf.
